--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/XX-系統/TxAuthGroup.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/XX-系統/TxAuthGroup.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24827"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\SKL\DB\GenTables\XX-系統\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97D3722F-86C8-4225-A5FD-CBB32674DC93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FD1EDEC-3485-464B-8F80-3A8E20C8D77E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="60">
   <si>
     <t>SEQ</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -281,6 +281,10 @@
   <si>
     <t>BranchNo = ,AND AuthNo % ,AND Status&gt;= ,AND Status&lt;=</t>
     <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>nvarchar2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -903,8 +907,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G18"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9:C9"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -1057,7 +1061,7 @@
         <v>39</v>
       </c>
       <c r="D10" s="21" t="s">
-        <v>14</v>
+        <v>59</v>
       </c>
       <c r="E10" s="5" t="s">
         <v>43</v>
@@ -1077,7 +1081,7 @@
         <v>41</v>
       </c>
       <c r="D11" s="21" t="s">
-        <v>14</v>
+        <v>59</v>
       </c>
       <c r="E11" s="5" t="s">
         <v>42</v>
@@ -1237,7 +1241,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B5" sqref="B5"/>
     </sheetView>

--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/XX-系統/TxAuthGroup.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/XX-系統/TxAuthGroup.xlsx
@@ -1,28 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\SKL\DB\GenTables\XX-系統\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\192.168.10.16\St1Share(NAS)\SKL\DB\GenTables\XX-系統\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FD1EDEC-3485-464B-8F80-3A8E20C8D77E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9FF2F86-8911-4D2D-838D-0DCD5C5E713C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="16663" windowHeight="8863" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
     <sheet name="DBS" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -163,10 +164,6 @@
   </si>
   <si>
     <t>狀態</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.未啟用 1:啟用 9.停用</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -284,6 +281,10 @@
   </si>
   <si>
     <t>nvarchar2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.正常 1:停用 9.全部</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -907,22 +908,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView tabSelected="1" topLeftCell="B9" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="21.4609375" defaultRowHeight="16.75" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="5.109375" style="20" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.33203125" style="20" customWidth="1"/>
+    <col min="1" max="1" width="5.07421875" style="20" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.3046875" style="20" customWidth="1"/>
     <col min="3" max="3" width="27" style="24" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.77734375" style="25" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="5.77734375" style="20" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="27.6640625" style="23" customWidth="1"/>
-    <col min="8" max="16384" width="21.44140625" style="11"/>
+    <col min="4" max="4" width="10.765625" style="25" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="5.765625" style="20" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="27.69140625" style="23" customWidth="1"/>
+    <col min="8" max="16384" width="21.4609375" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A1" s="29" t="s">
         <v>7</v>
       </c>
@@ -937,7 +938,7 @@
       <c r="F1" s="9"/>
       <c r="G1" s="10"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A2" s="29"/>
       <c r="B2" s="30"/>
       <c r="C2" s="12" t="s">
@@ -950,7 +951,7 @@
       <c r="F2" s="14"/>
       <c r="G2" s="15"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A3" s="32" t="s">
         <v>8</v>
       </c>
@@ -963,7 +964,7 @@
       <c r="F3" s="14"/>
       <c r="G3" s="15"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A4" s="29" t="s">
         <v>10</v>
       </c>
@@ -974,7 +975,7 @@
       <c r="F4" s="14"/>
       <c r="G4" s="15"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A5" s="32" t="s">
         <v>4</v>
       </c>
@@ -985,7 +986,7 @@
       <c r="F5" s="14"/>
       <c r="G5" s="15"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A6" s="29" t="s">
         <v>5</v>
       </c>
@@ -996,7 +997,7 @@
       <c r="F6" s="14"/>
       <c r="G6" s="15"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A7" s="29" t="s">
         <v>6</v>
       </c>
@@ -1007,7 +1008,7 @@
       <c r="F7" s="14"/>
       <c r="G7" s="15"/>
     </row>
-    <row r="8" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A8" s="12" t="s">
         <v>0</v>
       </c>
@@ -1030,7 +1031,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A9" s="20">
         <v>1</v>
       </c>
@@ -1049,56 +1050,56 @@
       <c r="F9" s="5"/>
       <c r="G9" s="22"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A10" s="20">
         <f>A9+1</f>
         <v>2</v>
       </c>
       <c r="B10" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C10" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="C10" s="4" t="s">
-        <v>39</v>
-      </c>
       <c r="D10" s="21" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F10" s="5"/>
       <c r="G10" s="22"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A11" s="20">
         <f t="shared" ref="A11:A17" si="0">A10+1</f>
         <v>3</v>
       </c>
       <c r="B11" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C11" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="D11" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="E11" s="5" t="s">
         <v>41</v>
-      </c>
-      <c r="D11" s="21" t="s">
-        <v>59</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>42</v>
       </c>
       <c r="F11" s="5"/>
       <c r="G11" s="22"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A12" s="20">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="B12" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C12" s="4" t="s">
         <v>46</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>47</v>
       </c>
       <c r="D12" s="21" t="s">
         <v>14</v>
@@ -1109,29 +1110,29 @@
       <c r="F12" s="5"/>
       <c r="G12" s="22"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A13" s="20">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="B13" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C13" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="D13" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="D13" s="21" t="s">
+      <c r="E13" s="27" t="s">
         <v>51</v>
-      </c>
-      <c r="E13" s="27" t="s">
-        <v>52</v>
       </c>
       <c r="F13" s="27"/>
       <c r="G13" s="28" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A14" s="20">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -1150,10 +1151,10 @@
       </c>
       <c r="F14" s="5"/>
       <c r="G14" s="22" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A15" s="20">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -1162,14 +1163,14 @@
         <v>21</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D15" s="21" t="s">
         <v>16</v>
       </c>
       <c r="E15" s="5"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A16" s="20">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -1187,7 +1188,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A17" s="20">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -1203,7 +1204,7 @@
       </c>
       <c r="E17" s="5"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A18" s="20">
         <f t="shared" ref="A18" si="1">A17+1</f>
         <v>10</v>
@@ -1246,15 +1247,15 @@
       <selection pane="bottomLeft" activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.75" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="16" style="1" customWidth="1"/>
-    <col min="2" max="2" width="71.109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="71.07421875" style="1" customWidth="1"/>
     <col min="3" max="3" width="17" style="1" customWidth="1"/>
     <col min="4" max="4" width="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
         <v>9</v>
       </c>
@@ -1265,37 +1266,37 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B2" s="1" t="s">
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A3" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B3" s="1" t="s">
+      <c r="C3" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A4" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>58</v>
-      </c>
       <c r="C4" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
